--- a/cc_comments_log.xlsx
+++ b/cc_comments_log.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEVIN_TAYLOR\Documents\GitHub\Repair-Tacker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E13AA4E-C725-4127-AAF5-83DC0DF723E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1740" yWindow="1740" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -28,8 +34,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,13 +98,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -136,7 +150,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,6 +184,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -204,9 +219,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -379,14 +395,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" customWidth="1"/>
+    <col min="3" max="3" width="54.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/cc_comments_log.xlsx
+++ b/cc_comments_log.xlsx
@@ -1,60 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEVIN_TAYLOR\Documents\GitHub\Repair-Tacker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E13AA4E-C725-4127-AAF5-83DC0DF723E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1740" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>CC_Subsection</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,50 +46,100 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -150,7 +177,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -184,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -219,10 +245,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,30 +420,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="11.453125" customWidth="1"/>
-    <col min="2" max="2" width="17.36328125" customWidth="1"/>
-    <col min="3" max="3" width="54.6328125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CC_Subsection</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-05-28 13:20:15</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CC-1-A side 1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/cc_comments_log.xlsx
+++ b/cc_comments_log.xlsx
@@ -1,37 +1,66 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEVIN_TAYLOR\Documents\GitHub\Repair-Tacker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B30F9A0-8BF0-41B0-B05A-401088BCDE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1740" yWindow="1740" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>CC_Subsection</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>2025-05-28 13:20:15</t>
+  </si>
+  <si>
+    <t>CC-1-A side 1</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +75,97 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82C26A79-3884-436F-B12B-F38C6EB14A46}" name="Table1" displayName="Table1" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:C1048576" xr:uid="{82C26A79-3884-436F-B12B-F38C6EB14A46}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{4AC0E3CC-9046-4B3F-A17F-F38FBCB8EDD0}" name="Date"/>
+    <tableColumn id="2" xr3:uid="{455DF84E-9476-473A-9255-C1447EE17361}" name="CC_Subsection"/>
+    <tableColumn id="3" xr3:uid="{D6E6744B-7427-42A2-BF74-3EFE09F5A087}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,54 +452,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>CC_Subsection</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-05-28 13:20:15</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CC-1-A side 1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/cc_comments_log.xlsx
+++ b/cc_comments_log.xlsx
@@ -1,66 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEVIN_TAYLOR\Documents\GitHub\Repair-Tacker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B30F9A0-8BF0-41B0-B05A-401088BCDE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="1740" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>CC_Subsection</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>2025-05-28 13:20:15</t>
-  </si>
-  <si>
-    <t>CC-1-A side 1</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -75,97 +46,94 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82C26A79-3884-436F-B12B-F38C6EB14A46}" name="Table1" displayName="Table1" ref="A1:C1048576" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:C1048576" xr:uid="{82C26A79-3884-436F-B12B-F38C6EB14A46}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4AC0E3CC-9046-4B3F-A17F-F38FBCB8EDD0}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{455DF84E-9476-473A-9255-C1447EE17361}" name="CC_Subsection"/>
-    <tableColumn id="3" xr3:uid="{D6E6744B-7427-42A2-BF74-3EFE09F5A087}" name="Description"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -452,46 +420,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CC_Subsection</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-05-28 13:20:15</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CC-1-A side 1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-05-28 13:24:00</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CC-1-A side 1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>test 2</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/cc_comments_log.xlsx
+++ b/cc_comments_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,23 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-05-28 13:32:34</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CC-1-A side 1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cc_comments_log.xlsx
+++ b/cc_comments_log.xlsx
@@ -1,37 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEVIN_TAYLOR\Documents\GitHub\Repair-Tacker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A62B302-FE97-4FEB-ADF6-528A036FF047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>CC_Subsection</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +66,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,85 +390,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>CC_Subsection</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-05-28 13:20:15</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CC-1-A side 1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-05-28 13:24:00</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CC-1-A side 1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>test 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-05-28 13:32:34</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CC-1-A side 1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/cc_comments_log.xlsx
+++ b/cc_comments_log.xlsx
@@ -1,57 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEVIN_TAYLOR\Documents\GitHub\Repair-Tacker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A62B302-FE97-4FEB-ADF6-528A036FF047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>CC_Subsection</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -390,24 +420,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CC_Subsection</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-05-28 13:44:17</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CC-2-A side 1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/cc_comments_log.xlsx
+++ b/cc_comments_log.xlsx
@@ -1,37 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEVIN_TAYLOR\Documents\GitHub\Repair-Tacker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8B970E-4BF3-416C-A588-D53E122C4F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>CC_Subsection</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +66,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,51 +390,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>CC_Subsection</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-05-28 13:44:17</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CC-2-A side 1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/cc_comments_log.xlsx
+++ b/cc_comments_log.xlsx
@@ -1,57 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEVIN_TAYLOR\Documents\GitHub\Repair-Tacker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8B970E-4BF3-416C-A588-D53E122C4F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>CC_Subsection</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -390,24 +420,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CC_Subsection</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-05-28 14:15:32</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CC-1-A side 1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/cc_comments_log.xlsx
+++ b/cc_comments_log.xlsx
@@ -1,37 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEVIN_TAYLOR\Documents\GitHub\Repair-Tacker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6C6C2F-7A50-40C2-885D-BBB75E474198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>CC_Subsection</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +66,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,51 +390,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>CC_Subsection</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-05-28 14:15:32</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CC-1-A side 1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/cc_comments_log.xlsx
+++ b/cc_comments_log.xlsx
@@ -1,57 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEVIN_TAYLOR\Documents\GitHub\Repair-Tacker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6C6C2F-7A50-40C2-885D-BBB75E474198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>CC_Subsection</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -390,24 +420,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>CC_Subsection</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-05-28 15:07:13</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CC-1-A side 1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/cc_comments_log.xlsx
+++ b/cc_comments_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,6 +467,74 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-05-28 15:07:33</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CC-4-A side 1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-05-28 15:07:33</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CC-4-2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>test2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-05-28 15:07:33</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CC-4-3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TEST3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-05-28 15:07:33</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CC-4-B side 4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>TEST4</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cc_comments_log.xlsx
+++ b/cc_comments_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +535,23 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-05-28 15:07:51</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CC-7-B side 4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>TEST4</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cc_comments_log.xlsx
+++ b/cc_comments_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>Description</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>User</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -466,6 +471,7 @@
           <t>test</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -483,6 +489,7 @@
           <t>test</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -500,6 +507,7 @@
           <t>test2</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -517,6 +525,7 @@
           <t>TEST3</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -534,6 +543,7 @@
           <t>TEST4</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -549,6 +559,29 @@
       <c r="C7" t="inlineStr">
         <is>
           <t>TEST4</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-05-28 15:13:29</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CC-1-A side 1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>usps</t>
         </is>
       </c>
     </row>

--- a/cc_comments_log.xlsx
+++ b/cc_comments_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -585,6 +585,28 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-05-28 15:13:36</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CC-1-A side 1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>aci</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cc_comments_log.xlsx
+++ b/cc_comments_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,6 +607,28 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-05-28 15:13:46</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CC-1-A side 1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>retiina</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cc_comments_log.xlsx
+++ b/cc_comments_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,6 +629,28 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-05-28 15:14:02</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CC-1-A side 1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>retiina</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cc_comments_log.xlsx
+++ b/cc_comments_log.xlsx
@@ -1,37 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEVIN_TAYLOR\Documents\GitHub\Repair-Tacker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE71FA47-3520-4A8A-9308-9CBD802CA46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>CC_Subsection</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +69,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,235 +393,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="A2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>CC_Subsection</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>User</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-05-28 15:07:13</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>CC-1-A side 1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-05-28 15:07:33</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>CC-4-A side 1</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-05-28 15:07:33</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CC-4-2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>test2</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-05-28 15:07:33</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>CC-4-3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>TEST3</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-05-28 15:07:33</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>CC-4-B side 4</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>TEST4</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-05-28 15:07:51</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>CC-7-B side 4</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>TEST4</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-05-28 15:13:29</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>CC-1-A side 1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>usps</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-05-28 15:13:36</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>CC-1-A side 1</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>aci</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-05-28 15:13:46</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CC-1-A side 1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>retiina</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-05-28 15:14:02</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>CC-1-A side 1</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>retiina</t>
-        </is>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
